--- a/branches/ValueSet-be-vs-request-intent.xlsx
+++ b/branches/ValueSet-be-vs-request-intent.xlsx
@@ -233,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/branches/ValueSet-be-vs-request-intent.xlsx
+++ b/branches/ValueSet-be-vs-request-intent.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from RequestIntent" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BeVsRequestIntent</t>
+    <t>BeVSRequestIntent</t>
   </si>
   <si>
     <t>Title</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Belgium (http://hl7belgium.org)</t>
+  </si>
+  <si>
+    <t>Message-Structure (message-structure@ehealth.fgov.be(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -323,21 +323,19 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>18</v>
